--- a/Emissao/Dados_Emissao/Original/Maria_Aparecida_Silva_de_Almeida.xlsx
+++ b/Emissao/Dados_Emissao/Original/Maria_Aparecida_Silva_de_Almeida.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="114">
   <si>
     <t>Cia</t>
   </si>
@@ -68,13 +68,142 @@
     <t>Corretor</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
+  </si>
+  <si>
+    <t>911 - CAMPINAS MERCADO</t>
+  </si>
+  <si>
+    <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
+  </si>
+  <si>
+    <t>528902 - ALEXANDRE JOAO FILHO</t>
+  </si>
+  <si>
+    <t>526637 - ALTH SILVEIRA CORRETORA DE SEGUR</t>
+  </si>
+  <si>
+    <t>526069 - ANA PAULA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>526881 - ANDERSON SILVA E SOUZA COR DE SE</t>
+  </si>
+  <si>
+    <t>486347 - ANOVAMAR CORR DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>437840 - ARAMAR CORR DE SEGS SC LTDA</t>
+  </si>
+  <si>
+    <t>510430 - AXII CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>533472 - Artermar Corretagem de Seguros L</t>
+  </si>
+  <si>
+    <t>531664 - B3M CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>526300 - BLIX CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>534308 - BWCOR CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>527838 - Bergamo corretora de seguros Ltd</t>
+  </si>
+  <si>
+    <t>401998 - CAMPINAS CORRETORA DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>524260 - CL MACEDO CORRETORA DE SEGUROS L</t>
+  </si>
+  <si>
+    <t>504957 - DIESEL CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>405370 - DYNATECH CORR.DE SEGS.S/C LTDA.</t>
+  </si>
+  <si>
+    <t>528058 - E J L PLANOS DE SAUDE SEG em ger</t>
+  </si>
+  <si>
+    <t>511913 - E L M ALVES LTDA</t>
+  </si>
+  <si>
+    <t>916 - JUNDIAI MERCADO</t>
+  </si>
+  <si>
+    <t>402656 - EMERSON CONS CORR DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>443912 - EVENTUAL CORRETORA DE SEGUROS EI</t>
+  </si>
+  <si>
+    <t>529110 - EZ CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>491090 - F. B. BONFIM CORRETORA DE SEGURO</t>
+  </si>
+  <si>
+    <t>520116 - FAV CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>518111 - FILIPPINI CORRETORA DE SEGUROS L</t>
+  </si>
+  <si>
+    <t>531902 - FROTA TEIXEIRA DE PAULINIA COR S</t>
+  </si>
+  <si>
+    <t>534319 - Forteplan Negocios e Cor de Seg</t>
+  </si>
+  <si>
+    <t>403545 - GASPERE CORRETORA DE SEGUROS LTD</t>
+  </si>
+  <si>
+    <t>403736 - GUARNIERI - ADM E COR DE SEGS S</t>
+  </si>
+  <si>
+    <t>443199 - H T GOLD CORRET DE SGS S/S LTDA</t>
+  </si>
+  <si>
+    <t>485460 - HERITA ADM E CORRETORA DE SEGURO</t>
+  </si>
+  <si>
+    <t>521424 - HOPEFUL CORRETORA DE SEGUROS DE</t>
+  </si>
+  <si>
+    <t>525365 - J BRAGA CORRETORA DE SEGUROS E S</t>
+  </si>
+  <si>
+    <t>512395 - JHZS CONSULTORIA E CORR DE SEGS</t>
+  </si>
+  <si>
+    <t>532549 - JUNDISEG CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
+    <t>534097 - LANEK CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>527477 - LETS CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>531648 - LRB Corretora de Seguros Ltda</t>
+  </si>
+  <si>
     <t>531</t>
   </si>
   <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>54819</t>
+    <t>990</t>
+  </si>
+  <si>
+    <t>296881</t>
   </si>
   <si>
     <t>1</t>
@@ -83,319 +212,22 @@
     <t>0</t>
   </si>
   <si>
-    <t>De: 28/10/2024 a 28/10/2025</t>
-  </si>
-  <si>
-    <t>LEONIDES MARGARIDA PERES JOAO</t>
-  </si>
-  <si>
-    <t>03/10/2024</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>R$ 224,98</t>
-  </si>
-  <si>
-    <t>R$ 241,57</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-  </si>
-  <si>
-    <t>911 - CAMPINAS MERCADO</t>
-  </si>
-  <si>
-    <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-  </si>
-  <si>
-    <t>528902 - ALEXANDRE JOAO FILHO</t>
-  </si>
-  <si>
-    <t>526637 - ALTH SILVEIRA CORRETORA DE SEGUR</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>294526</t>
-  </si>
-  <si>
-    <t>De: 27/09/2024 a 27/09/2025</t>
-  </si>
-  <si>
-    <t>TATIANE MIRANDOLA</t>
-  </si>
-  <si>
-    <t>04/10/2024</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>R$ 1.290,74</t>
-  </si>
-  <si>
-    <t>R$ 1.385,99</t>
-  </si>
-  <si>
-    <t>526069 - ANA PAULA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>526881 - ANDERSON SILVA E SOUZA COR DE SE</t>
-  </si>
-  <si>
-    <t>486347 - ANOVAMAR CORR DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>294934</t>
-  </si>
-  <si>
-    <t>De: 19/10/2024 a 19/10/2025</t>
-  </si>
-  <si>
-    <t>LUIZ MARTINS FILHO</t>
-  </si>
-  <si>
-    <t>09/10/2024</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>R$ 2.121,60</t>
-  </si>
-  <si>
-    <t>R$ 2.278,17</t>
-  </si>
-  <si>
-    <t>437840 - ARAMAR CORR DE SEGS SC LTDA</t>
-  </si>
-  <si>
-    <t>294499</t>
-  </si>
-  <si>
-    <t>De: 17/09/2024 a 17/09/2025</t>
-  </si>
-  <si>
-    <t>BENEDITO CARLOS LATANZA</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R$ 1.484,95</t>
-  </si>
-  <si>
-    <t>R$ 1.594,53</t>
-  </si>
-  <si>
-    <t>510430 - AXII CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>294767</t>
-  </si>
-  <si>
-    <t>De: 02/10/2024 a 02/10/2025</t>
-  </si>
-  <si>
-    <t>ANDRADE REPRESENTACOES SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>08/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 13.123,17</t>
-  </si>
-  <si>
-    <t>R$ 14.091,65</t>
-  </si>
-  <si>
-    <t>533472 - Artermar Corretagem de Seguros L</t>
-  </si>
-  <si>
-    <t>531664 - B3M CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>526300 - BLIX CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>534308 - BWCOR CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>527838 - Bergamo corretora de seguros Ltd</t>
-  </si>
-  <si>
-    <t>401998 - CAMPINAS CORRETORA DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>524260 - CL MACEDO CORRETORA DE SEGUROS L</t>
-  </si>
-  <si>
-    <t>504957 - DIESEL CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>405370 - DYNATECH CORR.DE SEGS.S/C LTDA.</t>
-  </si>
-  <si>
-    <t>528058 - E J L PLANOS DE SAUDE SEG em ger</t>
-  </si>
-  <si>
-    <t>511913 - E L M ALVES LTDA</t>
-  </si>
-  <si>
-    <t>916 - JUNDIAI MERCADO</t>
-  </si>
-  <si>
-    <t>402656 - EMERSON CONS CORR DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>443912 - EVENTUAL CORRETORA DE SEGUROS EI</t>
-  </si>
-  <si>
-    <t>529110 - EZ CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>491090 - F. B. BONFIM CORRETORA DE SEGURO</t>
-  </si>
-  <si>
-    <t>520116 - FAV CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>518111 - FILIPPINI CORRETORA DE SEGUROS L</t>
-  </si>
-  <si>
-    <t>531902 - FROTA TEIXEIRA DE PAULINIA COR S</t>
-  </si>
-  <si>
-    <t>534319 - Forteplan Negocios e Cor de Seg</t>
-  </si>
-  <si>
-    <t>403545 - GASPERE CORRETORA DE SEGUROS LTD</t>
-  </si>
-  <si>
-    <t>294719</t>
-  </si>
-  <si>
-    <t>De: 07/10/2024 a 07/10/2025</t>
-  </si>
-  <si>
-    <t>GUARNIERI POLETINE GUARNIERI LTDA EPP</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.385,85</t>
-  </si>
-  <si>
-    <t>R$ 1.488,12</t>
-  </si>
-  <si>
-    <t>403736 - GUARNIERI - ADM E COR DE SEGS S</t>
-  </si>
-  <si>
-    <t>294720</t>
-  </si>
-  <si>
-    <t>R$ 2.075,87</t>
-  </si>
-  <si>
-    <t>R$ 2.229,06</t>
-  </si>
-  <si>
-    <t>294721</t>
-  </si>
-  <si>
-    <t>R$ 2.892,15</t>
-  </si>
-  <si>
-    <t>R$ 3.105,59</t>
-  </si>
-  <si>
-    <t>443199 - H T GOLD CORRET DE SGS S/S LTDA</t>
-  </si>
-  <si>
-    <t>294209</t>
-  </si>
-  <si>
-    <t>De: 14/09/2024 a 14/09/2025</t>
-  </si>
-  <si>
-    <t>JADSON COLETTI</t>
-  </si>
-  <si>
-    <t>01/10/2024</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>R$ 1.891,44</t>
-  </si>
-  <si>
-    <t>R$ 2.031,02</t>
-  </si>
-  <si>
-    <t>485460 - HERITA ADM E CORRETORA DE SEGURO</t>
-  </si>
-  <si>
-    <t>294593</t>
-  </si>
-  <si>
-    <t>De: 05/10/2024 a 05/10/2025</t>
-  </si>
-  <si>
-    <t>RONALDO PEREIRA DE LIMA</t>
-  </si>
-  <si>
-    <t>R$ 2.014,45</t>
-  </si>
-  <si>
-    <t>R$ 2.163,11</t>
-  </si>
-  <si>
-    <t>521424 - HOPEFUL CORRETORA DE SEGUROS DE</t>
-  </si>
-  <si>
-    <t>525365 - J BRAGA CORRETORA DE SEGUROS E S</t>
-  </si>
-  <si>
-    <t>512395 - JHZS CONSULTORIA E CORR DE SEGS</t>
-  </si>
-  <si>
-    <t>532549 - JUNDISEG CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>534097 - LANEK CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>527477 - LETS CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>531648 - LRB Corretora de Seguros Ltda</t>
-  </si>
-  <si>
-    <t>294643</t>
-  </si>
-  <si>
-    <t>De: 28/09/2024 a 28/09/2025</t>
-  </si>
-  <si>
-    <t>ANDRE DE CAMPOS GIORDANA</t>
-  </si>
-  <si>
-    <t>R$ 2.668,89</t>
-  </si>
-  <si>
-    <t>R$ 2.865,85</t>
+    <t>De: 01/11/2024 a 01/11/2025</t>
+  </si>
+  <si>
+    <t>RICARDO PEREIRA MATUO</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>R$ 4.081,06</t>
+  </si>
+  <si>
+    <t>R$ 4.382,24</t>
   </si>
   <si>
     <t>404161 - M F C ASSESSORIA E CORR. DE SEGS</t>
@@ -407,60 +239,15 @@
     <t>534350 - MAPE CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>294327</t>
-  </si>
-  <si>
-    <t>De: 25/09/2024 a 25/09/2025</t>
-  </si>
-  <si>
-    <t>DANILO JUNIOR PAULINO</t>
-  </si>
-  <si>
-    <t>02/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 12.727,35</t>
-  </si>
-  <si>
-    <t>R$ 13.666,62</t>
-  </si>
-  <si>
     <t>534398 - MARTINSSEG CORRETORA DE SEGUROS</t>
   </si>
   <si>
-    <t>294821</t>
-  </si>
-  <si>
-    <t>SERGIO PEDRO CAMARGO</t>
-  </si>
-  <si>
-    <t>R$ 2.937,89</t>
-  </si>
-  <si>
-    <t>R$ 3.154,70</t>
-  </si>
-  <si>
     <t>414485 - MARUMOTO COR DE SEG LTDA</t>
   </si>
   <si>
     <t>485851 - MBROKER CORA DE SEG E SERV ADM L</t>
   </si>
   <si>
-    <t>55021</t>
-  </si>
-  <si>
-    <t>De: 16/10/2024 a 16/10/2025</t>
-  </si>
-  <si>
-    <t>JOAO ALFREDO REVERS</t>
-  </si>
-  <si>
-    <t>R$ 375,18</t>
-  </si>
-  <si>
-    <t>R$ 402,86</t>
-  </si>
-  <si>
     <t>404100 - MENDES RANUCCI ADM E COR DE SEGS</t>
   </si>
   <si>
@@ -479,51 +266,9 @@
     <t>404800 - NUNES E JUDAR ADM. COR. S. SC. L</t>
   </si>
   <si>
-    <t>54707</t>
-  </si>
-  <si>
-    <t>De: 01/10/2024 a 01/10/2025</t>
-  </si>
-  <si>
-    <t>ADRIANA CARLA FREITAS DA SILVA</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R$ 116,54</t>
-  </si>
-  <si>
-    <t>R$ 125,11</t>
-  </si>
-  <si>
     <t>493089 - PADME CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>54712</t>
-  </si>
-  <si>
-    <t>MILDRED APARECIDA BROTONI</t>
-  </si>
-  <si>
-    <t>R$ 137,46</t>
-  </si>
-  <si>
-    <t>R$ 147,58</t>
-  </si>
-  <si>
-    <t>54715</t>
-  </si>
-  <si>
-    <t>CARLA BROTONI SANTANA</t>
-  </si>
-  <si>
-    <t>R$ 126,77</t>
-  </si>
-  <si>
-    <t>R$ 136,12</t>
-  </si>
-  <si>
     <t>488169 - PARAMITAS CORRETORA DE SEGUROS L</t>
   </si>
   <si>
@@ -548,21 +293,6 @@
     <t>527031 - PRIME SEGUROS E CONSORCIO LTDA</t>
   </si>
   <si>
-    <t>55102</t>
-  </si>
-  <si>
-    <t>De: 09/10/2024 a 09/10/2025</t>
-  </si>
-  <si>
-    <t>CAMILLA DE MOURA BANDEIRA DOS REIS</t>
-  </si>
-  <si>
-    <t>R$ 249,68</t>
-  </si>
-  <si>
-    <t>R$ 268,10</t>
-  </si>
-  <si>
     <t>512275 - PROSP SEG CORRETAGEM DE SEGUROS</t>
   </si>
   <si>
@@ -593,18 +323,6 @@
     <t>527223 - STANLEY CORRETORA DE SEGUROS LTD</t>
   </si>
   <si>
-    <t>54985</t>
-  </si>
-  <si>
-    <t>DIEGO DALLA VECCHIA SCUR</t>
-  </si>
-  <si>
-    <t>R$ 335,47</t>
-  </si>
-  <si>
-    <t>R$ 360,22</t>
-  </si>
-  <si>
     <t>490604 - TARGET CONSULTING CORRETORA DE S</t>
   </si>
   <si>
@@ -617,103 +335,13 @@
     <t>485441 - VALDICEA PERIGO ZAMENGO</t>
   </si>
   <si>
-    <t>54737</t>
-  </si>
-  <si>
-    <t>CARLA THAIS DA COSTA NAVARRO</t>
-  </si>
-  <si>
-    <t>R$ 114,28</t>
-  </si>
-  <si>
-    <t>R$ 122,70</t>
-  </si>
-  <si>
     <t>532408 - VEIKI ADM E CORRETORA DE SEGUROS</t>
   </si>
   <si>
-    <t>294702</t>
-  </si>
-  <si>
-    <t>VANDRE MARCOS RODRIGUES BRAGA</t>
-  </si>
-  <si>
-    <t>R$ 2.178,30</t>
-  </si>
-  <si>
-    <t>R$ 2.339,05</t>
-  </si>
-  <si>
-    <t>54770</t>
-  </si>
-  <si>
-    <t>DENIS HENRIQUE CARVALHO DURIGUETO</t>
-  </si>
-  <si>
-    <t>R$ 382,44</t>
-  </si>
-  <si>
-    <t>R$ 410,65</t>
-  </si>
-  <si>
     <t>527689 - VIP CLASS CORRETORA DE SEGUROS L</t>
   </si>
   <si>
-    <t>294359</t>
-  </si>
-  <si>
-    <t>EMERSON GOMES BOLTEN ROCHA</t>
-  </si>
-  <si>
-    <t>R$ 1.227,28</t>
-  </si>
-  <si>
-    <t>R$ 1.317,85</t>
-  </si>
-  <si>
     <t>493464 - WS BROKER CORRETORA DE SEGUROS L</t>
-  </si>
-  <si>
-    <t>294375</t>
-  </si>
-  <si>
-    <t>De: 04/10/2024 a 04/10/2025</t>
-  </si>
-  <si>
-    <t>JOAO DENIS DE OLIVEIRA COSTA</t>
-  </si>
-  <si>
-    <t>R$ 1.613,61</t>
-  </si>
-  <si>
-    <t>R$ 1.732,69</t>
-  </si>
-  <si>
-    <t>294399</t>
-  </si>
-  <si>
-    <t>DAIANE ERIKA AMARAL DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 2.462,72</t>
-  </si>
-  <si>
-    <t>R$ 2.644,46</t>
-  </si>
-  <si>
-    <t>294698</t>
-  </si>
-  <si>
-    <t>De: 11/10/2024 a 11/10/2025</t>
-  </si>
-  <si>
-    <t>DIONISIO PETROCINI JUNIOR</t>
-  </si>
-  <si>
-    <t>R$ 1.734,74</t>
-  </si>
-  <si>
-    <t>R$ 1.862,76</t>
   </si>
   <si>
     <t>490261 - WS3 GESTAO DE RISCOS E SEGUROS L</t>
@@ -770,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -837,111 +465,111 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -949,167 +577,167 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1117,55 +745,55 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1173,55 +801,55 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
         <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1229,1119 +857,1119 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
         <v>30</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
         <v>31</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
         <v>32</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" t="s">
         <v>33</v>
-      </c>
-      <c r="R12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R14" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R15" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P20" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="Q20" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R21" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q22" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R22" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P23" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O24" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R24" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O25" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q25" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R26" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O27" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P27" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P28" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="Q28" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R28" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -2349,55 +1977,55 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O29" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P29" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q29" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R29" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -2405,55 +2033,55 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P30" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R30" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
@@ -2461,111 +2089,111 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O31" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P31" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R31" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O32" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q32" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R32" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
@@ -2573,55 +2201,55 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N33" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q33" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R33" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -2629,391 +2257,391 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P34" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R34" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O35" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P35" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q35" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R35" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N36" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O36" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P36" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q36" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R36" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O37" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P37" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q37" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R37" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O38" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P38" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q38" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R38" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N39" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O39" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P39" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q39" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R39" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O40" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P40" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q40" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R40" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -3021,167 +2649,167 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="L41" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O41" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P41" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q41" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R41" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O42" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P42" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q42" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R42" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N43" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O43" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P43" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q43" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R43" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -3189,55 +2817,55 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N44" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O44" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P44" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q44" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R44" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -3245,167 +2873,167 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="L45" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O45" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P45" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q45" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R45" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O46" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P46" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q46" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R46" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O47" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P47" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q47" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R47" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -3413,335 +3041,335 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="L48" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N48" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O48" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P48" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q48" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R48" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O49" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P49" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q49" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R49" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O50" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P50" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q50" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R50" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O51" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P51" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q51" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R51" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N52" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O52" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P52" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q52" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R52" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N53" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O53" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P53" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="Q53" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R53" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
@@ -3749,55 +3377,55 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="L54" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O54" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P54" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q54" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R54" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
@@ -3805,55 +3433,55 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="L55" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O55" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P55" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q55" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R55" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
@@ -3861,503 +3489,503 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="L56" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N56" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O56" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P56" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q56" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R56" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N57" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O57" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P57" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q57" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R57" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N58" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O58" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P58" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R58" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O59" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P59" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q59" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R59" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O60" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P60" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q60" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R60" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N61" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P61" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q61" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R61" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N62" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O62" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P62" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q62" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R62" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N63" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O63" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P63" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q63" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R63" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N64" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O64" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P64" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q64" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R64" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
@@ -4365,559 +3993,559 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K65" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="L65" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O65" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P65" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q65" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R65" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N66" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O66" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P66" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q66" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R66" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O67" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P67" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q67" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R67" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N68" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O68" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P68" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q68" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R68" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N69" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O69" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P69" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q69" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R69" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N70" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O70" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P70" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q70" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R70" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N71" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O71" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P71" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q71" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R71" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N72" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O72" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P72" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q72" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R72" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O73" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P73" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="Q73" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R73" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N74" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O74" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P74" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q74" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R74" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
@@ -4925,223 +4553,223 @@
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="L75" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="M75" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N75" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O75" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P75" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q75" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R75" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N76" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O76" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P76" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q76" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R76" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N77" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O77" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P77" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q77" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R77" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N78" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O78" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P78" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q78" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R78" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
@@ -5149,55 +4777,55 @@
         <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K79" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="L79" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="M79" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N79" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O79" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P79" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q79" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R79" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80">
@@ -5205,559 +4833,55 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K80" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="L80" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="M80" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N80" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O80" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P80" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q80" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R80" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" t="s">
-        <v>210</v>
-      </c>
-      <c r="D81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
-      </c>
-      <c r="G81" t="s">
-        <v>211</v>
-      </c>
-      <c r="H81" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" t="s">
-        <v>134</v>
-      </c>
-      <c r="J81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K81" t="s">
-        <v>212</v>
-      </c>
-      <c r="L81" t="s">
-        <v>213</v>
-      </c>
-      <c r="M81" t="s">
-        <v>29</v>
-      </c>
-      <c r="N81" t="s">
-        <v>30</v>
-      </c>
-      <c r="O81" t="s">
-        <v>31</v>
-      </c>
-      <c r="P81" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>33</v>
-      </c>
-      <c r="R81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" t="s">
-        <v>215</v>
-      </c>
-      <c r="D82" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
-      </c>
-      <c r="G82" t="s">
-        <v>216</v>
-      </c>
-      <c r="H82" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" t="s">
-        <v>134</v>
-      </c>
-      <c r="J82" t="s">
-        <v>58</v>
-      </c>
-      <c r="K82" t="s">
-        <v>217</v>
-      </c>
-      <c r="L82" t="s">
-        <v>218</v>
-      </c>
-      <c r="M82" t="s">
-        <v>29</v>
-      </c>
-      <c r="N82" t="s">
-        <v>30</v>
-      </c>
-      <c r="O82" t="s">
-        <v>31</v>
-      </c>
-      <c r="P82" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>33</v>
-      </c>
-      <c r="R82" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" t="s">
-        <v>220</v>
-      </c>
-      <c r="D83" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="s">
-        <v>221</v>
-      </c>
-      <c r="G83" t="s">
-        <v>222</v>
-      </c>
-      <c r="H83" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" t="s">
-        <v>134</v>
-      </c>
-      <c r="J83" t="s">
-        <v>41</v>
-      </c>
-      <c r="K83" t="s">
-        <v>223</v>
-      </c>
-      <c r="L83" t="s">
-        <v>224</v>
-      </c>
-      <c r="M83" t="s">
-        <v>29</v>
-      </c>
-      <c r="N83" t="s">
-        <v>30</v>
-      </c>
-      <c r="O83" t="s">
-        <v>31</v>
-      </c>
-      <c r="P83" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>33</v>
-      </c>
-      <c r="R83" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" t="s">
-        <v>63</v>
-      </c>
-      <c r="G84" t="s">
-        <v>226</v>
-      </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" t="s">
-        <v>134</v>
-      </c>
-      <c r="J84" t="s">
-        <v>41</v>
-      </c>
-      <c r="K84" t="s">
-        <v>227</v>
-      </c>
-      <c r="L84" t="s">
-        <v>228</v>
-      </c>
-      <c r="M84" t="s">
-        <v>29</v>
-      </c>
-      <c r="N84" t="s">
-        <v>30</v>
-      </c>
-      <c r="O84" t="s">
-        <v>31</v>
-      </c>
-      <c r="P84" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>33</v>
-      </c>
-      <c r="R84" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" t="s">
-        <v>229</v>
-      </c>
-      <c r="D85" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" t="s">
-        <v>230</v>
-      </c>
-      <c r="G85" t="s">
-        <v>231</v>
-      </c>
-      <c r="H85" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" t="s">
-        <v>92</v>
-      </c>
-      <c r="J85" t="s">
-        <v>21</v>
-      </c>
-      <c r="K85" t="s">
-        <v>232</v>
-      </c>
-      <c r="L85" t="s">
-        <v>233</v>
-      </c>
-      <c r="M85" t="s">
-        <v>29</v>
-      </c>
-      <c r="N85" t="s">
-        <v>30</v>
-      </c>
-      <c r="O85" t="s">
-        <v>31</v>
-      </c>
-      <c r="P85" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>33</v>
-      </c>
-      <c r="R85" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" t="s">
-        <v>29</v>
-      </c>
-      <c r="I86" t="s">
-        <v>29</v>
-      </c>
-      <c r="J86" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86" t="s">
-        <v>29</v>
-      </c>
-      <c r="L86" t="s">
-        <v>29</v>
-      </c>
-      <c r="M86" t="s">
-        <v>29</v>
-      </c>
-      <c r="N86" t="s">
-        <v>30</v>
-      </c>
-      <c r="O86" t="s">
-        <v>31</v>
-      </c>
-      <c r="P86" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R86" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>29</v>
-      </c>
-      <c r="H87" t="s">
-        <v>29</v>
-      </c>
-      <c r="I87" t="s">
-        <v>29</v>
-      </c>
-      <c r="J87" t="s">
-        <v>29</v>
-      </c>
-      <c r="K87" t="s">
-        <v>29</v>
-      </c>
-      <c r="L87" t="s">
-        <v>29</v>
-      </c>
-      <c r="M87" t="s">
-        <v>29</v>
-      </c>
-      <c r="N87" t="s">
-        <v>30</v>
-      </c>
-      <c r="O87" t="s">
-        <v>31</v>
-      </c>
-      <c r="P87" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>33</v>
-      </c>
-      <c r="R87" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" t="s">
-        <v>29</v>
-      </c>
-      <c r="I88" t="s">
-        <v>29</v>
-      </c>
-      <c r="J88" t="s">
-        <v>29</v>
-      </c>
-      <c r="K88" t="s">
-        <v>29</v>
-      </c>
-      <c r="L88" t="s">
-        <v>29</v>
-      </c>
-      <c r="M88" t="s">
-        <v>29</v>
-      </c>
-      <c r="N88" t="s">
-        <v>30</v>
-      </c>
-      <c r="O88" t="s">
-        <v>31</v>
-      </c>
-      <c r="P88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>33</v>
-      </c>
-      <c r="R88" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
-      <c r="H89" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" t="s">
-        <v>29</v>
-      </c>
-      <c r="J89" t="s">
-        <v>29</v>
-      </c>
-      <c r="K89" t="s">
-        <v>29</v>
-      </c>
-      <c r="L89" t="s">
-        <v>29</v>
-      </c>
-      <c r="M89" t="s">
-        <v>29</v>
-      </c>
-      <c r="N89" t="s">
-        <v>30</v>
-      </c>
-      <c r="O89" t="s">
-        <v>31</v>
-      </c>
-      <c r="P89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>33</v>
-      </c>
-      <c r="R89" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
